--- a/非受控文档/绩效评价/第三周绩效评价.xlsx
+++ b/非受控文档/绩效评价/第三周绩效评价.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuqi/Desktop/PRD2018/绩效评价/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmy/Documents/GitHub/SE-Education-Assistant-System/非受控文档/绩效评价/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
   </bookViews>
   <sheets>
     <sheet name="20180426" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
   <si>
     <t>蓝舒雯</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,477 @@
   </si>
   <si>
     <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止时间：</t>
+    <rPh sb="0" eb="1">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有特殊标注的任务的截止时间统一为每周日中午12:00</t>
+    <rPh sb="0" eb="1">
+      <t>mei y</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>te shu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>biao zhu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>d</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>d</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>jie zhi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>tong yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>mei zhou</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ri</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>zhong wu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绩效评价规则：</t>
+    <rPh sb="0" eb="1">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ping jia</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gui ze</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.每项任务有四个指标，一个指标未达标，视情节严重与否扣除0.02-0.05分</t>
+    <rPh sb="2" eb="3">
+      <t>mei xinag ren</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>you</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>si ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yi ge</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>wei da biao</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yu fou</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.若某组员在规定时间内几乎未完成任何指定任务，或在第一条规则内扣分超过0.4分则改组员本周绩效为0分</t>
+    <rPh sb="2" eb="3">
+      <t>ruo</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zu yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gui ding shi jian</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ji hu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>wan cheng</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ren he</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi ding</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>huo z</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>di yi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>tiao</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>gui ze</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>kou fen</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ze</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>gai cheng yuan</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>zu yuan</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>fen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人名币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan yin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing jia</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bing fa kuan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui deng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ren ming bi</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>li ru</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>fen z</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>tuan jian ji jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人名币。作为团建基金。</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.小组微信群（组名为G12💅）内，组长发布@所有人 消息时，无特殊情况超过15分钟未回复，一次扣除0.02分，可无限叠加。</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei xin qun</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>zu ming</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>nei</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zu zhang</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fa bu</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>suo you ren</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>xiao xi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>wu</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>te shu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>chao guo</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>hui fu</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>yi ci</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ke wu xian die jia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.小组成员在本周工作成果优秀（具体表现为课堂上被杨老师表扬，提交任务近乎完美达到所有指标的情况），视情况本周绩效加0.02-0.05的分。</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>cheng yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>gong zuo</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>cheng guo</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>you xiu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ju ti</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>biao xian</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ke tang</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yang</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>lao shi</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>biao yang</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ti jiao</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ren wu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jin hu wan mei</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>da dao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhi biao</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>d</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shi li</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>qing kuang</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ben zhou ji xiao</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>jia fen</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>d</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>fen shu</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,7 +687,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +773,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,7 +856,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -706,14 +1206,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -979,7 +1479,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -997,7 +1497,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1014,7 +1514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -1032,14 +1532,14 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1063,7 +1563,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -1081,7 +1581,7 @@
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>31</v>
       </c>
@@ -1098,13 +1598,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
@@ -1127,7 +1627,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>34</v>
       </c>
@@ -1144,7 +1644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>23</v>
       </c>
@@ -1161,29 +1661,97 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="10"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
     </row>
   </sheetData>

--- a/非受控文档/绩效评价/第三周绩效评价.xlsx
+++ b/非受控文档/绩效评价/第三周绩效评价.xlsx
@@ -406,125 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人名币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
-    <rPh sb="2" eb="3">
-      <t>xiao zu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>shuo ming</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>yuan yin</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>huo zhe</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>qing jia</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>hui yi</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ben zhou</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ji xiao</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>kou chu</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>fen</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>bing fa kuan</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>yu</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>dui deng</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>d</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ren ming bi</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>li ru</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>fa kuan</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>yuan</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>chi dao</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>fen z</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>fa kuan</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>yuan</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>zuo wei</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>tuan jian ji jin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人名币。作为团建基金。</t>
-    <rPh sb="16" eb="17">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>dao</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>hui yi</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>shi jian</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>fen zhong</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5.小组微信群（组名为G12💅）内，组长发布@所有人 消息时，无特殊情况超过15分钟未回复，一次扣除0.02分，可无限叠加。</t>
     <rPh sb="2" eb="3">
       <t>xiao zu</t>
@@ -679,6 +560,128 @@
     </rPh>
     <rPh sb="68" eb="69">
       <t>fen shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.小组未说明原因或未请假，会议迟到，本周绩效扣除0.05分，并罚款与迟到分钟对等的人民币（例如迟到5分钟罚款5元，迟到60分钟罚款60元）作为团建基金</t>
+    <rPh sb="2" eb="3">
+      <t>xiao zu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shuo ming</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yuan yin</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>huo zhe</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>qing jia</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ben zhou</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ji xiao</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>kou chu</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fen</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>bing fa kuan</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>dui deng</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>d</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ren min</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>li ru</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>chi dao</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>fen z</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>fa kuan</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>zuo wei</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>tuan jian ji jin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.小组未说明原因或未请假，会议未到，本周绩效扣除0.1分，并罚款与会议时间分钟数对等的人民币。作为团建基金。</t>
+    <rPh sb="16" eb="17">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>hui yi</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>fen zhong</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ren min</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -853,9 +856,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -866,6 +866,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,7 +1192,7 @@
   <dimension ref="A2:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:I36"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1206,14 +1209,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
@@ -1662,10 +1665,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="7"/>
@@ -1674,25 +1677,25 @@
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="10"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
@@ -1705,7 +1708,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1714,7 +1717,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1723,7 +1726,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1732,7 +1735,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
